--- a/artfynd/A 47079-2019.xlsx
+++ b/artfynd/A 47079-2019.xlsx
@@ -4124,10 +4124,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111477366</v>
+        <v>111476779</v>
       </c>
       <c r="B32" t="n">
-        <v>78579</v>
+        <v>89419</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4140,37 +4140,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>519515.8996614926</v>
+        <v>519682.0588881435</v>
       </c>
       <c r="R32" t="n">
-        <v>7151321.485724327</v>
+        <v>7151062.961124314</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4224,22 +4224,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111476779</v>
+        <v>111478332</v>
       </c>
       <c r="B33" t="n">
-        <v>89419</v>
+        <v>96368</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4248,25 +4248,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1204</v>
+        <v>221952</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>519682.0588881435</v>
+        <v>519691.5529315504</v>
       </c>
       <c r="R33" t="n">
-        <v>7151062.961124314</v>
+        <v>7150796.076782022</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4336,19 +4336,19 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111478332</v>
+        <v>111478318</v>
       </c>
       <c r="B34" t="n">
         <v>96368</v>
@@ -4388,10 +4388,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>519691.5529315504</v>
+        <v>519477.1715801154</v>
       </c>
       <c r="R34" t="n">
-        <v>7150796.076782022</v>
+        <v>7151301.40310728</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111478318</v>
+        <v>111477350</v>
       </c>
       <c r="B35" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4476,37 +4476,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>519477.1715801154</v>
+        <v>519486.9696307178</v>
       </c>
       <c r="R35" t="n">
-        <v>7151301.40310728</v>
+        <v>7151254.464493743</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4560,22 +4560,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111477350</v>
+        <v>111477372</v>
       </c>
       <c r="B36" t="n">
-        <v>78605</v>
+        <v>89686</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4584,25 +4584,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6462</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4612,10 +4612,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>519486.9696307178</v>
+        <v>519504.8857270729</v>
       </c>
       <c r="R36" t="n">
-        <v>7151254.464493743</v>
+        <v>7151558.564654102</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111477372</v>
+        <v>111477366</v>
       </c>
       <c r="B37" t="n">
-        <v>89686</v>
+        <v>78579</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4700,21 +4700,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>658</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4724,10 +4724,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>519504.8857270729</v>
+        <v>519515.8996614926</v>
       </c>
       <c r="R37" t="n">
-        <v>7151558.564654102</v>
+        <v>7151321.485724327</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -10396,10 +10396,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111477364</v>
+        <v>111477396</v>
       </c>
       <c r="B88" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10412,21 +10412,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10436,10 +10436,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>519703.7324451482</v>
+        <v>519500.1483663829</v>
       </c>
       <c r="R88" t="n">
-        <v>7150849.201368837</v>
+        <v>7151151.488534225</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10508,10 +10508,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111477396</v>
+        <v>111477364</v>
       </c>
       <c r="B89" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10524,21 +10524,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10548,10 +10548,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>519500.1483663829</v>
+        <v>519703.7324451482</v>
       </c>
       <c r="R89" t="n">
-        <v>7151151.488534225</v>
+        <v>7150849.201368837</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -17022,10 +17022,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111492392</v>
+        <v>111480405</v>
       </c>
       <c r="B147" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17038,34 +17038,34 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets NR, Jmt</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>519636.82785619</v>
+        <v>519620.3788537583</v>
       </c>
       <c r="R147" t="n">
-        <v>7150845.319999835</v>
+        <v>7151053.076734134</v>
       </c>
       <c r="S147" t="n">
         <v>15</v>
@@ -17122,22 +17122,22 @@
       <c r="AT147" t="inlineStr"/>
       <c r="AW147" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX147" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111480405</v>
+        <v>111480454</v>
       </c>
       <c r="B148" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17150,21 +17150,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17174,10 +17174,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>519620.3788537583</v>
+        <v>519717.413156116</v>
       </c>
       <c r="R148" t="n">
-        <v>7151053.076734134</v>
+        <v>7150803.575370145</v>
       </c>
       <c r="S148" t="n">
         <v>15</v>
@@ -17246,10 +17246,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111480454</v>
+        <v>111480402</v>
       </c>
       <c r="B149" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17262,21 +17262,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17286,10 +17286,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>519717.413156116</v>
+        <v>519476.848658799</v>
       </c>
       <c r="R149" t="n">
-        <v>7150803.575370145</v>
+        <v>7151487.242657971</v>
       </c>
       <c r="S149" t="n">
         <v>15</v>
@@ -17358,10 +17358,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111480258</v>
+        <v>111492392</v>
       </c>
       <c r="B150" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17374,34 +17374,34 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>O om Hyktabergets NR, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>519695.8962852532</v>
+        <v>519636.82785619</v>
       </c>
       <c r="R150" t="n">
-        <v>7150859.069846104</v>
+        <v>7150845.319999835</v>
       </c>
       <c r="S150" t="n">
         <v>15</v>
@@ -17458,22 +17458,22 @@
       <c r="AT150" t="inlineStr"/>
       <c r="AW150" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX150" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
         </is>
       </c>
       <c r="AY150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111480402</v>
+        <v>111492380</v>
       </c>
       <c r="B151" t="n">
-        <v>89419</v>
+        <v>89590</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17482,38 +17482,38 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1204</v>
+        <v>48</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>O om Hyktabergets NR, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>519476.848658799</v>
+        <v>519623.8298980477</v>
       </c>
       <c r="R151" t="n">
-        <v>7151487.242657971</v>
+        <v>7150852.136615888</v>
       </c>
       <c r="S151" t="n">
         <v>15</v>
@@ -17570,22 +17570,22 @@
       <c r="AT151" t="inlineStr"/>
       <c r="AW151" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX151" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
         </is>
       </c>
       <c r="AY151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111492380</v>
+        <v>111480258</v>
       </c>
       <c r="B152" t="n">
-        <v>89590</v>
+        <v>89686</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -17594,38 +17594,38 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets NR, Jmt</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>519623.8298980477</v>
+        <v>519695.8962852532</v>
       </c>
       <c r="R152" t="n">
-        <v>7150852.136615888</v>
+        <v>7150859.069846104</v>
       </c>
       <c r="S152" t="n">
         <v>15</v>
@@ -17682,12 +17682,12 @@
       <c r="AT152" t="inlineStr"/>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr"/>
@@ -19481,10 +19481,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111480430</v>
+        <v>111492387</v>
       </c>
       <c r="B169" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -19497,34 +19497,34 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>O om Hyktabergets NR, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>519582.6775320586</v>
+        <v>519599.5474416229</v>
       </c>
       <c r="R169" t="n">
-        <v>7150939.848791949</v>
+        <v>7150867.937278651</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
@@ -19581,22 +19581,22 @@
       <c r="AT169" t="inlineStr"/>
       <c r="AW169" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX169" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
         </is>
       </c>
       <c r="AY169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111492387</v>
+        <v>111480430</v>
       </c>
       <c r="B170" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -19609,34 +19609,34 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets NR, Jmt</t>
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>519599.5474416229</v>
+        <v>519582.6775320586</v>
       </c>
       <c r="R170" t="n">
-        <v>7150867.937278651</v>
+        <v>7150939.848791949</v>
       </c>
       <c r="S170" t="n">
         <v>15</v>
@@ -19693,12 +19693,12 @@
       <c r="AT170" t="inlineStr"/>
       <c r="AW170" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX170" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY170" t="inlineStr"/>

--- a/artfynd/A 47079-2019.xlsx
+++ b/artfynd/A 47079-2019.xlsx
@@ -3676,10 +3676,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111476757</v>
+        <v>111477364</v>
       </c>
       <c r="B28" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3688,41 +3688,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>519669.3656482336</v>
+        <v>519703.7324451482</v>
       </c>
       <c r="R28" t="n">
-        <v>7150888.655722179</v>
+        <v>7150849.201368837</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3776,19 +3776,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111476747</v>
+        <v>111478317</v>
       </c>
       <c r="B29" t="n">
         <v>96368</v>
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>519635.6429604449</v>
+        <v>519488.2552032215</v>
       </c>
       <c r="R29" t="n">
-        <v>7151029.456878723</v>
+        <v>7151391.162197177</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3888,22 +3888,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111476756</v>
+        <v>111476779</v>
       </c>
       <c r="B30" t="n">
-        <v>96368</v>
+        <v>89419</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3912,25 +3912,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221952</v>
+        <v>1204</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>519667.8813080011</v>
+        <v>519682.0588881435</v>
       </c>
       <c r="R30" t="n">
-        <v>7150917.971606103</v>
+        <v>7151062.961124314</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111476789</v>
+        <v>111476732</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4028,21 +4028,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>519663.5593729748</v>
+        <v>519666.4203414205</v>
       </c>
       <c r="R31" t="n">
-        <v>7151186.603548571</v>
+        <v>7151211.632453389</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111476732</v>
+        <v>111476757</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>96368</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4136,25 +4136,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>519666.4203414205</v>
+        <v>519669.3656482336</v>
       </c>
       <c r="R32" t="n">
-        <v>7151211.632453389</v>
+        <v>7150888.655722179</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111477364</v>
+        <v>111476747</v>
       </c>
       <c r="B33" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4248,41 +4248,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>519703.7324451482</v>
+        <v>519635.6429604449</v>
       </c>
       <c r="R33" t="n">
-        <v>7150849.201368837</v>
+        <v>7151029.456878723</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4336,19 +4336,19 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111478317</v>
+        <v>111476756</v>
       </c>
       <c r="B34" t="n">
         <v>96368</v>
@@ -4388,10 +4388,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>519488.2552032215</v>
+        <v>519667.8813080011</v>
       </c>
       <c r="R34" t="n">
-        <v>7151391.162197177</v>
+        <v>7150917.971606103</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4448,22 +4448,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111476779</v>
+        <v>111476789</v>
       </c>
       <c r="B35" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4476,21 +4476,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4500,10 +4500,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>519682.0588881435</v>
+        <v>519663.5593729748</v>
       </c>
       <c r="R35" t="n">
-        <v>7151062.961124314</v>
+        <v>7151186.603548571</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111476774</v>
+        <v>111477399</v>
       </c>
       <c r="B42" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5256,41 +5256,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>519677.4597396616</v>
+        <v>519489.674830229</v>
       </c>
       <c r="R42" t="n">
-        <v>7151039.644729474</v>
+        <v>7151574.420465933</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5344,22 +5344,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111476788</v>
+        <v>111477377</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5372,37 +5372,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>519659.7959766205</v>
+        <v>519500.066607543</v>
       </c>
       <c r="R43" t="n">
-        <v>7151167.605704734</v>
+        <v>7151299.393346014</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5456,22 +5456,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111477399</v>
+        <v>111477355</v>
       </c>
       <c r="B44" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5480,25 +5480,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5508,10 +5508,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>519489.674830229</v>
+        <v>519506.1155822636</v>
       </c>
       <c r="R44" t="n">
-        <v>7151574.420465933</v>
+        <v>7151163.600848542</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5580,10 +5580,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111477367</v>
+        <v>111477348</v>
       </c>
       <c r="B45" t="n">
-        <v>78579</v>
+        <v>90087</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5592,25 +5592,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2081</v>
+        <v>3298</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5620,10 +5620,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>519675.4097548581</v>
+        <v>519703.7575052233</v>
       </c>
       <c r="R45" t="n">
-        <v>7150821.848856089</v>
+        <v>7150845.320149194</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5692,10 +5692,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111477377</v>
+        <v>111477367</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5708,21 +5708,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5732,10 +5732,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>519500.066607543</v>
+        <v>519675.4097548581</v>
       </c>
       <c r="R46" t="n">
-        <v>7151299.393346014</v>
+        <v>7150821.848856089</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111477355</v>
+        <v>111476774</v>
       </c>
       <c r="B47" t="n">
-        <v>96368</v>
+        <v>89590</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5816,41 +5816,41 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>221952</v>
+        <v>48</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>519506.1155822636</v>
+        <v>519677.4597396616</v>
       </c>
       <c r="R47" t="n">
-        <v>7151163.600848542</v>
+        <v>7151039.644729474</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5904,22 +5904,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111477348</v>
+        <v>111476788</v>
       </c>
       <c r="B48" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5928,41 +5928,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>519703.7575052233</v>
+        <v>519659.7959766205</v>
       </c>
       <c r="R48" t="n">
-        <v>7150845.320149194</v>
+        <v>7151167.605704734</v>
       </c>
       <c r="S48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6016,12 +6016,12 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
@@ -7260,10 +7260,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111478319</v>
+        <v>111476795</v>
       </c>
       <c r="B60" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7272,25 +7272,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7300,10 +7300,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>519466.5078355155</v>
+        <v>519649.5689999168</v>
       </c>
       <c r="R60" t="n">
-        <v>7151281.068579192</v>
+        <v>7150945.453801268</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7360,22 +7360,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111476795</v>
+        <v>111476739</v>
       </c>
       <c r="B61" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7384,25 +7384,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>519649.5689999168</v>
+        <v>519463.3618626953</v>
       </c>
       <c r="R61" t="n">
-        <v>7150945.453801268</v>
+        <v>7151368.150270014</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7484,10 +7484,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111476763</v>
+        <v>111478319</v>
       </c>
       <c r="B62" t="n">
-        <v>89686</v>
+        <v>96368</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7496,25 +7496,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>658</v>
+        <v>221952</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7524,10 +7524,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>519647.5017706673</v>
+        <v>519466.5078355155</v>
       </c>
       <c r="R62" t="n">
-        <v>7151199.436581039</v>
+        <v>7151281.068579192</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7584,22 +7584,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111476739</v>
+        <v>111476763</v>
       </c>
       <c r="B63" t="n">
-        <v>96368</v>
+        <v>89686</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7608,25 +7608,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221952</v>
+        <v>658</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>519463.3618626953</v>
+        <v>519647.5017706673</v>
       </c>
       <c r="R63" t="n">
-        <v>7151368.150270014</v>
+        <v>7151199.436581039</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -11628,10 +11628,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111476772</v>
+        <v>111476766</v>
       </c>
       <c r="B99" t="n">
-        <v>89462</v>
+        <v>77677</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11640,25 +11640,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3277</v>
+        <v>1249</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11668,10 +11668,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>519471.7924740734</v>
+        <v>519673.0709600562</v>
       </c>
       <c r="R99" t="n">
-        <v>7151400.11200909</v>
+        <v>7150916.711294788</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11740,10 +11740,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111477372</v>
+        <v>111476772</v>
       </c>
       <c r="B100" t="n">
-        <v>89686</v>
+        <v>89462</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11756,37 +11756,37 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>658</v>
+        <v>3277</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>519504.8857270729</v>
+        <v>519471.7924740734</v>
       </c>
       <c r="R100" t="n">
-        <v>7151558.564654102</v>
+        <v>7151400.11200909</v>
       </c>
       <c r="S100" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -11840,22 +11840,22 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111477366</v>
+        <v>111476777</v>
       </c>
       <c r="B101" t="n">
-        <v>78579</v>
+        <v>89419</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11868,37 +11868,37 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>519515.8996614926</v>
+        <v>519616.2116266635</v>
       </c>
       <c r="R101" t="n">
-        <v>7151321.485724327</v>
+        <v>7151231.144986806</v>
       </c>
       <c r="S101" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -11952,22 +11952,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111477345</v>
+        <v>111477395</v>
       </c>
       <c r="B102" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11980,21 +11980,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12004,10 +12004,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>519658.3401181163</v>
+        <v>519476.4021185616</v>
       </c>
       <c r="R102" t="n">
-        <v>7151058.495881194</v>
+        <v>7151219.037861325</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12076,10 +12076,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111476766</v>
+        <v>111477372</v>
       </c>
       <c r="B103" t="n">
-        <v>77677</v>
+        <v>89686</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12088,41 +12088,41 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1249</v>
+        <v>658</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>519673.0709600562</v>
+        <v>519504.8857270729</v>
       </c>
       <c r="R103" t="n">
-        <v>7150916.711294788</v>
+        <v>7151558.564654102</v>
       </c>
       <c r="S103" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -12176,22 +12176,22 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111476777</v>
+        <v>111477366</v>
       </c>
       <c r="B104" t="n">
-        <v>89419</v>
+        <v>78579</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12204,37 +12204,37 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>519616.2116266635</v>
+        <v>519515.8996614926</v>
       </c>
       <c r="R104" t="n">
-        <v>7151231.144986806</v>
+        <v>7151321.485724327</v>
       </c>
       <c r="S104" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12288,22 +12288,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111477395</v>
+        <v>111477345</v>
       </c>
       <c r="B105" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12316,21 +12316,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12340,10 +12340,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>519476.4021185616</v>
+        <v>519658.3401181163</v>
       </c>
       <c r="R105" t="n">
-        <v>7151219.037861325</v>
+        <v>7151058.495881194</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -13868,10 +13868,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111492364</v>
+        <v>111480351</v>
       </c>
       <c r="B119" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13880,38 +13880,38 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets NR, Jmt</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>519488.5175250429</v>
+        <v>519553.4351155606</v>
       </c>
       <c r="R119" t="n">
-        <v>7151282.502691913</v>
+        <v>7151123.368802631</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13968,22 +13968,22 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111492399</v>
+        <v>111492364</v>
       </c>
       <c r="B120" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13996,21 +13996,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14020,10 +14020,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>519484.0824531555</v>
+        <v>519488.5175250429</v>
       </c>
       <c r="R120" t="n">
-        <v>7151233.316850854</v>
+        <v>7151282.502691913</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -14092,10 +14092,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111480352</v>
+        <v>111492399</v>
       </c>
       <c r="B121" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14104,38 +14104,38 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>O om Hyktabergets NR, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>519694.058980546</v>
+        <v>519484.0824531555</v>
       </c>
       <c r="R121" t="n">
-        <v>7151076.83801333</v>
+        <v>7151233.316850854</v>
       </c>
       <c r="S121" t="n">
         <v>15</v>
@@ -14192,22 +14192,22 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111480450</v>
+        <v>111480352</v>
       </c>
       <c r="B122" t="n">
-        <v>77515</v>
+        <v>89590</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14216,25 +14216,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14244,10 +14244,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>519525.9756764318</v>
+        <v>519694.058980546</v>
       </c>
       <c r="R122" t="n">
-        <v>7151163.727874894</v>
+        <v>7151076.83801333</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -14316,10 +14316,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111480369</v>
+        <v>111480450</v>
       </c>
       <c r="B123" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14328,25 +14328,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14356,10 +14356,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>519498.2056408902</v>
+        <v>519525.9756764318</v>
       </c>
       <c r="R123" t="n">
-        <v>7151455.472037167</v>
+        <v>7151163.727874894</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14428,10 +14428,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111480351</v>
+        <v>111480369</v>
       </c>
       <c r="B124" t="n">
-        <v>89590</v>
+        <v>96674</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14440,25 +14440,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48</v>
+        <v>219880</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14468,10 +14468,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>519553.4351155606</v>
+        <v>519498.2056408902</v>
       </c>
       <c r="R124" t="n">
-        <v>7151123.368802631</v>
+        <v>7151455.472037167</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -15100,10 +15100,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111480356</v>
+        <v>111492406</v>
       </c>
       <c r="B130" t="n">
-        <v>89590</v>
+        <v>81248</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15112,38 +15112,38 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48</v>
+        <v>1312</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>O om Hyktabergets NR, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>519630.6164007522</v>
+        <v>519652.8678240207</v>
       </c>
       <c r="R130" t="n">
-        <v>7150871.155811339</v>
+        <v>7150835.504150698</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15200,22 +15200,22 @@
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
         </is>
       </c>
       <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111480454</v>
+        <v>111480247</v>
       </c>
       <c r="B131" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15228,21 +15228,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15252,10 +15252,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>519717.413156116</v>
+        <v>519550.4073616608</v>
       </c>
       <c r="R131" t="n">
-        <v>7150803.575370145</v>
+        <v>7151124.211852288</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15324,10 +15324,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111492406</v>
+        <v>111480356</v>
       </c>
       <c r="B132" t="n">
-        <v>81248</v>
+        <v>89590</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15336,38 +15336,38 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1312</v>
+        <v>48</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets NR, Jmt</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>519652.8678240207</v>
+        <v>519630.6164007522</v>
       </c>
       <c r="R132" t="n">
-        <v>7150835.504150698</v>
+        <v>7150871.155811339</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15424,22 +15424,22 @@
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111480247</v>
+        <v>111480454</v>
       </c>
       <c r="B133" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15452,21 +15452,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -15476,10 +15476,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>519550.4073616608</v>
+        <v>519717.413156116</v>
       </c>
       <c r="R133" t="n">
-        <v>7151124.211852288</v>
+        <v>7150803.575370145</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -18026,10 +18026,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111492378</v>
+        <v>111492379</v>
       </c>
       <c r="B156" t="n">
-        <v>89790</v>
+        <v>89590</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18038,33 +18038,41 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6040186</v>
+        <v>48</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Lappticka</t>
+        </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
           <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>519471.3436050782</v>
+        <v>519562.9758162198</v>
       </c>
       <c r="R156" t="n">
-        <v>7151538.085619128</v>
+        <v>7150847.433255833</v>
       </c>
       <c r="S156" t="n">
         <v>15</v>
@@ -18115,6 +18123,7 @@
       <c r="AE156" t="b">
         <v>0</v>
       </c>
+      <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="b">
         <v>0</v>
       </c>
@@ -18126,17 +18135,17 @@
       </c>
       <c r="AX156" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111492379</v>
+        <v>111492355</v>
       </c>
       <c r="B157" t="n">
-        <v>89590</v>
+        <v>78579</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18145,41 +18154,38 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>48</v>
+        <v>2081</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
           <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>519562.9758162198</v>
+        <v>519462.6000890174</v>
       </c>
       <c r="R157" t="n">
-        <v>7150847.433255833</v>
+        <v>7151419.887856463</v>
       </c>
       <c r="S157" t="n">
         <v>15</v>
@@ -18230,7 +18236,6 @@
       <c r="AE157" t="b">
         <v>0</v>
       </c>
-      <c r="AF157" t="inlineStr"/>
       <c r="AG157" t="b">
         <v>0</v>
       </c>
@@ -18242,17 +18247,17 @@
       </c>
       <c r="AX157" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
         </is>
       </c>
       <c r="AY157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111492355</v>
+        <v>111492393</v>
       </c>
       <c r="B158" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18265,21 +18270,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18289,10 +18294,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>519462.6000890174</v>
+        <v>519650.2826519714</v>
       </c>
       <c r="R158" t="n">
-        <v>7151419.887856463</v>
+        <v>7150834.624970722</v>
       </c>
       <c r="S158" t="n">
         <v>15</v>
@@ -18361,10 +18366,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111492393</v>
+        <v>111492378</v>
       </c>
       <c r="B159" t="n">
-        <v>89423</v>
+        <v>89790</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18377,21 +18382,16 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>5432</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Granticka</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -18401,10 +18401,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>519650.2826519714</v>
+        <v>519471.3436050782</v>
       </c>
       <c r="R159" t="n">
-        <v>7150834.624970722</v>
+        <v>7151538.085619128</v>
       </c>
       <c r="S159" t="n">
         <v>15</v>
@@ -19481,10 +19481,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111480357</v>
+        <v>111480249</v>
       </c>
       <c r="B169" t="n">
-        <v>89590</v>
+        <v>89686</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -19493,25 +19493,25 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -19521,10 +19521,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>519676.8922138464</v>
+        <v>519641.0698743553</v>
       </c>
       <c r="R169" t="n">
-        <v>7150859.809774672</v>
+        <v>7151058.384667878</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
@@ -19593,10 +19593,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111480430</v>
+        <v>111480357</v>
       </c>
       <c r="B170" t="n">
-        <v>89423</v>
+        <v>89590</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -19605,25 +19605,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5432</v>
+        <v>48</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -19633,10 +19633,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>519582.6775320586</v>
+        <v>519676.8922138464</v>
       </c>
       <c r="R170" t="n">
-        <v>7150939.848791949</v>
+        <v>7150859.809774672</v>
       </c>
       <c r="S170" t="n">
         <v>15</v>
@@ -19705,10 +19705,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>111480249</v>
+        <v>111480430</v>
       </c>
       <c r="B171" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -19721,21 +19721,21 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -19745,10 +19745,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>519641.0698743553</v>
+        <v>519582.6775320586</v>
       </c>
       <c r="R171" t="n">
-        <v>7151058.384667878</v>
+        <v>7150939.848791949</v>
       </c>
       <c r="S171" t="n">
         <v>15</v>

--- a/artfynd/A 47079-2019.xlsx
+++ b/artfynd/A 47079-2019.xlsx
@@ -6476,10 +6476,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111477350</v>
+        <v>111476800</v>
       </c>
       <c r="B53" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6488,41 +6488,41 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>519486.9696307178</v>
+        <v>519703.5790999912</v>
       </c>
       <c r="R53" t="n">
-        <v>7151254.464493743</v>
+        <v>7150806.073641595</v>
       </c>
       <c r="S53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6576,22 +6576,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111477375</v>
+        <v>111476776</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6604,37 +6604,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>519459.5617040338</v>
+        <v>519531.375777864</v>
       </c>
       <c r="R54" t="n">
-        <v>7151354.759089268</v>
+        <v>7151196.966169034</v>
       </c>
       <c r="S54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6688,22 +6688,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111477371</v>
+        <v>111477350</v>
       </c>
       <c r="B55" t="n">
-        <v>89686</v>
+        <v>78605</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6712,25 +6712,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>658</v>
+        <v>6462</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>519659.2286341283</v>
+        <v>519486.9696307178</v>
       </c>
       <c r="R55" t="n">
-        <v>7151054.6204904</v>
+        <v>7151254.464493743</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111476800</v>
+        <v>111477375</v>
       </c>
       <c r="B56" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6828,37 +6828,37 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>519703.5790999912</v>
+        <v>519459.5617040338</v>
       </c>
       <c r="R56" t="n">
-        <v>7150806.073641595</v>
+        <v>7151354.759089268</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6912,22 +6912,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111476776</v>
+        <v>111477371</v>
       </c>
       <c r="B57" t="n">
-        <v>89419</v>
+        <v>89686</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6940,37 +6940,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>519531.375777864</v>
+        <v>519659.2286341283</v>
       </c>
       <c r="R57" t="n">
-        <v>7151196.966169034</v>
+        <v>7151054.6204904</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7024,22 +7024,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111481842</v>
+        <v>111476791</v>
       </c>
       <c r="B58" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7048,25 +7048,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7076,13 +7076,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>519507.4499898279</v>
+        <v>519580.6241716935</v>
       </c>
       <c r="R58" t="n">
-        <v>7151292.541328098</v>
+        <v>7151192.538444952</v>
       </c>
       <c r="S58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7136,22 +7136,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111481860</v>
+        <v>111481842</v>
       </c>
       <c r="B59" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7164,21 +7164,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7188,10 +7188,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>519587.7896040641</v>
+        <v>519507.4499898279</v>
       </c>
       <c r="R59" t="n">
-        <v>7150950.662865917</v>
+        <v>7151292.541328098</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7260,10 +7260,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111476791</v>
+        <v>111481860</v>
       </c>
       <c r="B60" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7272,25 +7272,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7300,13 +7300,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>519580.6241716935</v>
+        <v>519587.7896040641</v>
       </c>
       <c r="R60" t="n">
-        <v>7151192.538444952</v>
+        <v>7150950.662865917</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7360,12 +7360,12 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111477388</v>
+        <v>111476775</v>
       </c>
       <c r="B75" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8956,37 +8956,37 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>519623.4843460753</v>
+        <v>519618.1500140807</v>
       </c>
       <c r="R75" t="n">
-        <v>7151040.159613697</v>
+        <v>7151131.115019515</v>
       </c>
       <c r="S75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9040,22 +9040,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111477395</v>
+        <v>111477388</v>
       </c>
       <c r="B76" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9068,21 +9068,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9092,10 +9092,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>519476.4021185616</v>
+        <v>519623.4843460753</v>
       </c>
       <c r="R76" t="n">
-        <v>7151219.037861325</v>
+        <v>7151040.159613697</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9164,10 +9164,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111478336</v>
+        <v>111477395</v>
       </c>
       <c r="B77" t="n">
-        <v>96251</v>
+        <v>77515</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9176,41 +9176,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220093</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>519527.4846303985</v>
+        <v>519476.4021185616</v>
       </c>
       <c r="R77" t="n">
-        <v>7151197.803693417</v>
+        <v>7151219.037861325</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9264,22 +9264,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111477361</v>
+        <v>111478336</v>
       </c>
       <c r="B78" t="n">
-        <v>78579</v>
+        <v>96251</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9288,41 +9288,41 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2081</v>
+        <v>220093</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>O om Hyktabergets naturreservat, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>519490.1507739828</v>
+        <v>519527.4846303985</v>
       </c>
       <c r="R78" t="n">
-        <v>7151297.173985304</v>
+        <v>7151197.803693417</v>
       </c>
       <c r="S78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9376,22 +9376,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111478319</v>
+        <v>111477361</v>
       </c>
       <c r="B79" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9400,41 +9400,41 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>519466.5078355155</v>
+        <v>519490.1507739828</v>
       </c>
       <c r="R79" t="n">
-        <v>7151281.068579192</v>
+        <v>7151297.173985304</v>
       </c>
       <c r="S79" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9488,22 +9488,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Elicia Olsson</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111476775</v>
+        <v>111478319</v>
       </c>
       <c r="B80" t="n">
-        <v>89401</v>
+        <v>96368</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9512,25 +9512,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1108</v>
+        <v>221952</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9540,10 +9540,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>519618.1500140807</v>
+        <v>519466.5078355155</v>
       </c>
       <c r="R80" t="n">
-        <v>7151131.115019515</v>
+        <v>7151281.068579192</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9600,12 +9600,12 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elicia Olsson, Astrid Blomberg, Elias Blad, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
@@ -18366,10 +18366,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111480404</v>
+        <v>111480452</v>
       </c>
       <c r="B159" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18382,21 +18382,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -18406,10 +18406,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>519635.5347408585</v>
+        <v>519590.8230774375</v>
       </c>
       <c r="R159" t="n">
-        <v>7151046.274448765</v>
+        <v>7150948.95733968</v>
       </c>
       <c r="S159" t="n">
         <v>15</v>
@@ -18478,10 +18478,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111480452</v>
+        <v>111480404</v>
       </c>
       <c r="B160" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -18494,21 +18494,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -18518,10 +18518,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>519590.8230774375</v>
+        <v>519635.5347408585</v>
       </c>
       <c r="R160" t="n">
-        <v>7150948.95733968</v>
+        <v>7151046.274448765</v>
       </c>
       <c r="S160" t="n">
         <v>15</v>
@@ -19486,10 +19486,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111492399</v>
+        <v>111480258</v>
       </c>
       <c r="B169" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -19502,34 +19502,34 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>Öster om Hyktabergets naturreservat, Jmt</t>
+          <t>O om Hyktabergets NR, Jmt</t>
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>519484.0824531555</v>
+        <v>519695.8962852532</v>
       </c>
       <c r="R169" t="n">
-        <v>7151233.316850854</v>
+        <v>7150859.069846104</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
@@ -19586,22 +19586,22 @@
       <c r="AT169" t="inlineStr"/>
       <c r="AW169" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX169" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111480258</v>
+        <v>111492399</v>
       </c>
       <c r="B170" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -19614,34 +19614,34 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>O om Hyktabergets NR, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>519695.8962852532</v>
+        <v>519484.0824531555</v>
       </c>
       <c r="R170" t="n">
-        <v>7150859.069846104</v>
+        <v>7151233.316850854</v>
       </c>
       <c r="S170" t="n">
         <v>15</v>
@@ -19698,12 +19698,12 @@
       <c r="AT170" t="inlineStr"/>
       <c r="AW170" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX170" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Astrid Blomberg</t>
         </is>
       </c>
       <c r="AY170" t="inlineStr"/>

--- a/artfynd/A 47079-2019.xlsx
+++ b/artfynd/A 47079-2019.xlsx
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>891775</v>
+        <v>111481863</v>
       </c>
       <c r="B7" t="n">
-        <v>78570</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Granön 1:2, Jmt</t>
+          <t>Öster om Hyktabergets naturreservat, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1306,7 +1306,7 @@
         <v>7151396.532172007</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2012-06-11</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2012-06-11</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1360,19 +1360,15 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>SCA Naturvärdesinventeringar</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
